--- a/tests/outputs/Dates.xlsx
+++ b/tests/outputs/Dates.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -19,34 +19,34 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="28">
-    <numFmt formatCode="yyyy-mm-dd" numFmtId="164"/>
-    <numFmt formatCode="m/d/yy" numFmtId="165"/>
-    <numFmt formatCode="m/dd/yy" numFmtId="166"/>
-    <numFmt formatCode="mm/dd/yy" numFmtId="167"/>
-    <numFmt formatCode="m/dd/yyyy" numFmtId="168"/>
-    <numFmt formatCode="mm/dd/yyyy" numFmtId="169"/>
-    <numFmt formatCode="m-d-yy" numFmtId="170"/>
-    <numFmt formatCode="m-d-yyyy" numFmtId="171"/>
-    <numFmt formatCode="mm-dd-yy" numFmtId="172"/>
-    <numFmt formatCode="ddd, mmm d, yyyy" numFmtId="173"/>
-    <numFmt formatCode="dddd, mmmm d, yyyy" numFmtId="174"/>
-    <numFmt formatCode="d mmm yyyy" numFmtId="175"/>
-    <numFmt formatCode="d mmmm yyyy" numFmtId="176"/>
-    <numFmt formatCode="yyyy-mm-dd h:mm:ss" numFmtId="177"/>
-    <numFmt formatCode="ddd mmm  d h:mm:ss yyyy" numFmtId="178"/>
-    <numFmt formatCode="ha/p\m \o\n mmm d, yyyy" numFmtId="179"/>
-    <numFmt formatCode="h:mma/p\m \o\n mmm d, yyyy" numFmtId="180"/>
-    <numFmt formatCode="mmm d, yyyy \a\t h:mm:ss AM/PM" numFmtId="181"/>
-    <numFmt formatCode="mmm d, yyyy \a\t h:mm" numFmtId="182"/>
-    <numFmt formatCode="m/d/yy \a\t h:mm:ss" numFmtId="183"/>
-    <numFmt formatCode="m-d-yyyy h:mma/p\m" numFmtId="184"/>
-    <numFmt formatCode="\o\n yyyy-mm-dd \a\t h AM/PM" numFmtId="185"/>
-    <numFmt formatCode="dddd mmmm d, yyyy h AM/PM" numFmtId="186"/>
-    <numFmt formatCode="ha/p\m" numFmtId="187"/>
-    <numFmt formatCode="h:mma/p\m" numFmtId="188"/>
-    <numFmt formatCode="h:mm:ssa/p\m" numFmtId="189"/>
-    <numFmt formatCode="h AM/PM" numFmtId="190"/>
-    <numFmt formatCode="m/d/yy ha/p\m " numFmtId="191"/>
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
+    <numFmt numFmtId="165" formatCode="m/d/yy"/>
+    <numFmt numFmtId="166" formatCode="m/dd/yy"/>
+    <numFmt numFmtId="167" formatCode="mm/dd/yy"/>
+    <numFmt numFmtId="168" formatCode="m/dd/yyyy"/>
+    <numFmt numFmtId="169" formatCode="mm/dd/yyyy"/>
+    <numFmt numFmtId="170" formatCode="m-d-yy"/>
+    <numFmt numFmtId="171" formatCode="m-d-yyyy"/>
+    <numFmt numFmtId="172" formatCode="mm-dd-yy"/>
+    <numFmt numFmtId="173" formatCode="ddd, mmm d, yyyy"/>
+    <numFmt numFmtId="174" formatCode="dddd, mmmm d, yyyy"/>
+    <numFmt numFmtId="175" formatCode="d mmm yyyy"/>
+    <numFmt numFmtId="176" formatCode="d mmmm yyyy"/>
+    <numFmt numFmtId="177" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="178" formatCode="ddd mmm  d h:mm:ss yyyy"/>
+    <numFmt numFmtId="179" formatCode="ha/p\m \o\n mmm d, yyyy"/>
+    <numFmt numFmtId="180" formatCode="h:mma/p\m \o\n mmm d, yyyy"/>
+    <numFmt numFmtId="181" formatCode="mmm d, yyyy \a\t h:mm:ss AM/PM"/>
+    <numFmt numFmtId="182" formatCode="mmm d, yyyy \a\t h:mm"/>
+    <numFmt numFmtId="183" formatCode="m/d/yy \a\t h:mm:ss"/>
+    <numFmt numFmtId="184" formatCode="m-d-yyyy h:mma/p\m"/>
+    <numFmt numFmtId="185" formatCode="\o\n yyyy-mm-dd \a\t h AM/PM"/>
+    <numFmt numFmtId="186" formatCode="dddd mmmm d, yyyy h AM/PM"/>
+    <numFmt numFmtId="187" formatCode="ha/p\m"/>
+    <numFmt numFmtId="188" formatCode="h:mma/p\m"/>
+    <numFmt numFmtId="189" formatCode="h:mm:ssa/p\m"/>
+    <numFmt numFmtId="190" formatCode="h AM/PM"/>
+    <numFmt numFmtId="191" formatCode="m/d/yy ha/p\m "/>
   </numFmts>
   <fonts count="3">
     <font>
@@ -99,7 +99,6 @@
       <bottom style="thin">
         <color rgb="00000000"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left>
@@ -114,7 +113,6 @@
       <bottom style="thin">
         <color rgb="00000000"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -129,7 +127,6 @@
       <bottom style="thin">
         <color rgb="00000000"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left>
@@ -144,7 +141,6 @@
       <bottom style="thin">
         <color rgb="00000000"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left>
@@ -159,127 +155,194 @@
       <bottom>
         <color rgb="00000000"/>
       </bottom>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="37">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf applyAlignment="1" borderId="2" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf applyAlignment="1" borderId="3" fillId="0" fontId="2" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf applyAlignment="1" borderId="4" fillId="0" fontId="2" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf applyAlignment="1" borderId="3" fillId="0" fontId="2" numFmtId="14" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf applyAlignment="1" borderId="3" fillId="0" fontId="2" numFmtId="166" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf applyAlignment="1" borderId="3" fillId="0" fontId="2" numFmtId="167" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf applyAlignment="1" borderId="3" fillId="0" fontId="2" numFmtId="168" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf applyAlignment="1" borderId="3" fillId="0" fontId="2" numFmtId="169" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf applyAlignment="1" borderId="3" fillId="0" fontId="2" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf applyAlignment="1" borderId="3" fillId="0" fontId="2" numFmtId="170" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf applyAlignment="1" borderId="3" fillId="0" fontId="2" numFmtId="171" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf applyAlignment="1" borderId="3" fillId="0" fontId="2" numFmtId="172" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf applyAlignment="1" borderId="3" fillId="0" fontId="2" numFmtId="173" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf applyAlignment="1" borderId="3" fillId="0" fontId="2" numFmtId="174" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf applyAlignment="1" borderId="3" fillId="0" fontId="2" numFmtId="175" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf applyAlignment="1" borderId="3" fillId="0" fontId="2" numFmtId="176" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf applyAlignment="1" borderId="3" fillId="0" fontId="2" numFmtId="178" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf applyAlignment="1" borderId="3" fillId="0" fontId="2" numFmtId="179" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf applyAlignment="1" borderId="3" fillId="0" fontId="2" numFmtId="180" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf applyAlignment="1" borderId="3" fillId="0" fontId="2" numFmtId="181" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf applyAlignment="1" borderId="3" fillId="0" fontId="2" numFmtId="182" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf applyAlignment="1" borderId="3" fillId="0" fontId="2" numFmtId="183" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf applyAlignment="1" borderId="3" fillId="0" fontId="2" numFmtId="184" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf applyAlignment="1" borderId="3" fillId="0" fontId="2" numFmtId="185" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf applyAlignment="1" borderId="3" fillId="0" fontId="2" numFmtId="186" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf applyAlignment="1" borderId="3" fillId="0" fontId="2" numFmtId="187" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf applyAlignment="1" borderId="3" fillId="0" fontId="2" numFmtId="188" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf applyAlignment="1" borderId="3" fillId="0" fontId="2" numFmtId="189" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf applyAlignment="1" borderId="3" fillId="0" fontId="2" numFmtId="20" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf applyAlignment="1" borderId="3" fillId="0" fontId="2" numFmtId="21" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf applyAlignment="1" borderId="3" fillId="0" fontId="2" numFmtId="190" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf applyAlignment="1" borderId="3" fillId="0" fontId="2" numFmtId="18" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf applyAlignment="1" borderId="3" fillId="0" fontId="2" numFmtId="19" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf applyAlignment="1" borderId="3" fillId="0" fontId="2" numFmtId="191" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf applyAlignment="1" borderId="5" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="168" fontId="2" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="169" fontId="2" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="170" fontId="2" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="171" fontId="2" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="172" fontId="2" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="173" fontId="2" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="174" fontId="2" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="175" fontId="2" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="180" fontId="2" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="181" fontId="2" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="182" fontId="2" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="183" fontId="2" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="184" fontId="2" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="185" fontId="2" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="186" fontId="2" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="187" fontId="2" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="188" fontId="2" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="189" fontId="2" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="20" fontId="2" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="21" fontId="2" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="190" fontId="2" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="18" fontId="2" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="19" fontId="2" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="191" fontId="2" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -580,11 +643,11 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col customWidth="1" max="1" min="1" width="28.71"/>
-    <col customWidth="1" max="2" min="2" width="28.99571428571429"/>
+    <col width="28.71" customWidth="1" min="1" max="1"/>
+    <col width="28.99571428571429" customWidth="1" min="2" max="2"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="16.5" r="1">
+    <row r="1" ht="16.5" customHeight="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
           <t>Date formats: General</t>
@@ -596,7 +659,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="16.5" r="2">
+    <row r="2" ht="16.5" customHeight="1">
       <c r="A2" s="3" t="n">
         <v>36192</v>
       </c>
@@ -606,7 +669,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="16.5" r="3">
+    <row r="3" ht="16.5" customHeight="1">
       <c r="A3" s="5" t="n">
         <v>36192</v>
       </c>
@@ -616,7 +679,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="16.5" r="4">
+    <row r="4" ht="16.5" customHeight="1">
       <c r="A4" s="6" t="n">
         <v>36192</v>
       </c>
@@ -626,7 +689,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="16.5" r="5">
+    <row r="5" ht="16.5" customHeight="1">
       <c r="A5" s="7" t="n">
         <v>36192</v>
       </c>
@@ -636,7 +699,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="16.5" r="6">
+    <row r="6" ht="16.5" customHeight="1">
       <c r="A6" s="8" t="n">
         <v>36192</v>
       </c>
@@ -646,7 +709,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="16.5" r="7">
+    <row r="7" ht="16.5" customHeight="1">
       <c r="A7" s="9" t="n">
         <v>36192</v>
       </c>
@@ -656,7 +719,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="16.5" r="8">
+    <row r="8" ht="16.5" customHeight="1">
       <c r="A8" s="10" t="n">
         <v>36192</v>
       </c>
@@ -666,7 +729,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="16.5" r="9">
+    <row r="9" ht="16.5" customHeight="1">
       <c r="A9" s="11" t="n">
         <v>36192</v>
       </c>
@@ -676,7 +739,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="16.5" r="10">
+    <row r="10" ht="16.5" customHeight="1">
       <c r="A10" s="12" t="n">
         <v>36192</v>
       </c>
@@ -686,7 +749,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="16.5" r="11">
+    <row r="11" ht="16.5" customHeight="1">
       <c r="A11" s="13" t="n">
         <v>36192</v>
       </c>
@@ -696,7 +759,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="16.5" r="12">
+    <row r="12" ht="16.5" customHeight="1">
       <c r="A12" s="14" t="n">
         <v>36192</v>
       </c>
@@ -706,7 +769,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="16.5" r="13">
+    <row r="13" ht="16.5" customHeight="1">
       <c r="A13" s="15" t="n">
         <v>36192</v>
       </c>
@@ -716,7 +779,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="16.5" r="14">
+    <row r="14" ht="16.5" customHeight="1">
       <c r="A14" s="16" t="n">
         <v>36192</v>
       </c>
@@ -726,7 +789,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="16.5" r="15">
+    <row r="15" ht="16.5" customHeight="1">
       <c r="A15" s="17" t="n">
         <v>36192</v>
       </c>
@@ -736,7 +799,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="16.5" r="16">
+    <row r="16" ht="16.5" customHeight="1">
       <c r="A16" s="18" t="n">
         <v>36192.56833333334</v>
       </c>
@@ -746,7 +809,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="16.5" r="17">
+    <row r="17" ht="16.5" customHeight="1">
       <c r="A17" s="19" t="n">
         <v>36192.54166666666</v>
       </c>
@@ -756,7 +819,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="16.5" r="18">
+    <row r="18" ht="16.5" customHeight="1">
       <c r="A18" s="20" t="n">
         <v>36192.56805555556</v>
       </c>
@@ -766,7 +829,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="16.5" r="19">
+    <row r="19" ht="16.5" customHeight="1">
       <c r="A19" s="21" t="n">
         <v>36192.56833333334</v>
       </c>
@@ -776,7 +839,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="16.5" r="20">
+    <row r="20" ht="16.5" customHeight="1">
       <c r="A20" s="22" t="n">
         <v>36192.56805555556</v>
       </c>
@@ -786,7 +849,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="16.5" r="21">
+    <row r="21" ht="16.5" customHeight="1">
       <c r="A21" s="23" t="n">
         <v>36192.56833333334</v>
       </c>
@@ -796,7 +859,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="16.5" r="22">
+    <row r="22" ht="16.5" customHeight="1">
       <c r="A22" s="24" t="n">
         <v>36192.56805555556</v>
       </c>
@@ -806,7 +869,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="16.5" r="23">
+    <row r="23" ht="16.5" customHeight="1">
       <c r="A23" s="25" t="n">
         <v>36192.04166666666</v>
       </c>
@@ -816,7 +879,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="16.5" r="24">
+    <row r="24" ht="16.5" customHeight="1">
       <c r="A24" s="26" t="n">
         <v>36192.54166666666</v>
       </c>
@@ -826,7 +889,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="16.5" r="25">
+    <row r="25" ht="16.5" customHeight="1">
       <c r="A25" s="27" t="n">
         <v>0.5416666666666666</v>
       </c>
@@ -836,7 +899,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="16.5" r="26">
+    <row r="26" ht="16.5" customHeight="1">
       <c r="A26" s="28" t="n">
         <v>0.5680555555555555</v>
       </c>
@@ -846,7 +909,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="16.5" r="27">
+    <row r="27" ht="16.5" customHeight="1">
       <c r="A27" s="29" t="n">
         <v>0.5683333333333334</v>
       </c>
@@ -856,7 +919,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="16.5" r="28">
+    <row r="28" ht="16.5" customHeight="1">
       <c r="A28" s="30" t="n">
         <v>0.5680555555555555</v>
       </c>
@@ -866,7 +929,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="16.5" r="29">
+    <row r="29" ht="16.5" customHeight="1">
       <c r="A29" s="31" t="n">
         <v>0.5683333333333334</v>
       </c>
@@ -876,7 +939,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="16.5" r="30">
+    <row r="30" ht="16.5" customHeight="1">
       <c r="A30" s="32" t="n">
         <v>0.5416666666666666</v>
       </c>
@@ -886,7 +949,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="16.5" r="31">
+    <row r="31" ht="16.5" customHeight="1">
       <c r="A31" s="33" t="n">
         <v>0.5680555555555555</v>
       </c>
@@ -896,7 +959,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="16.5" r="32">
+    <row r="32" ht="16.5" customHeight="1">
       <c r="A32" s="34" t="n">
         <v>0.5683333333333334</v>
       </c>
@@ -906,7 +969,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="16.5" r="33">
+    <row r="33" ht="16.5" customHeight="1">
       <c r="A33" s="35" t="n">
         <v>36192.04166666666</v>
       </c>
@@ -917,7 +980,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -935,14 +998,14 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col customWidth="1" max="1" min="1" width="9.852857142857143"/>
+    <col width="9.852857142857143" customWidth="1" min="1" max="1"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="16.5" r="1">
+    <row r="1" ht="16.5" customHeight="1">
       <c r="A1" s="36" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -960,13 +1023,13 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col customWidth="1" max="1" min="1" width="9.852857142857143"/>
+    <col width="9.852857142857143" customWidth="1" min="1" max="1"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="16.5" r="1">
+    <row r="1" ht="16.5" customHeight="1">
       <c r="A1" s="36" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>